--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED1827-35D9-4F40-AF81-0E5AA2906B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7985B8-1BEA-486C-969A-FFD70C165D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time Spent</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>fibonacci-number</t>
+  </si>
+  <si>
+    <t>sortColors</t>
+  </si>
+  <si>
+    <t>kClosest</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A30692-2CD0-4C82-8A71-9ADFFC2F81D4}">
-  <dimension ref="A4:G6"/>
+  <dimension ref="A4:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +434,7 @@
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -447,8 +453,14 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -470,8 +482,14 @@
       <c r="G5">
         <v>10</v>
       </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -491,6 +509,12 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
     </row>

--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7985B8-1BEA-486C-969A-FFD70C165D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAB3235-677F-4399-9DAC-7F114875B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Time Spent</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>kClosest</t>
+  </si>
+  <si>
+    <t>merge</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A30692-2CD0-4C82-8A71-9ADFFC2F81D4}">
-  <dimension ref="A4:I6"/>
+  <dimension ref="A4:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -488,8 +494,11 @@
       <c r="I5">
         <v>10</v>
       </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -515,6 +524,9 @@
         <v>3</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
     </row>

--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAB3235-677F-4399-9DAC-7F114875B2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C554C1-6030-401B-85F4-1AE01AAADF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Time Spent</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>merge</t>
+  </si>
+  <si>
+    <t>nextGreaterElement</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A30692-2CD0-4C82-8A71-9ADFFC2F81D4}">
-  <dimension ref="A4:J6"/>
+  <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +533,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C554C1-6030-401B-85F4-1AE01AAADF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FC84D-9D50-4AF5-AE35-2592E6835FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Time Spent</t>
   </si>
@@ -69,19 +69,42 @@
   </si>
   <si>
     <t>nextGreaterElement</t>
+  </si>
+  <si>
+    <t>isValidParentheses</t>
+  </si>
+  <si>
+    <r>
+      <t>MyQueue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF708090"/>
+        <rFont val="Monaco"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF708090"/>
+      <name val="Monaco"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,7 +446,7 @@
   <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +560,12 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -545,12 +574,24 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
     </row>

--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FC84D-9D50-4AF5-AE35-2592E6835FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38545A34-2B5D-4CC7-BF31-3A8591088CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Time Spent</t>
   </si>
@@ -86,6 +86,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>minStack</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +569,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -580,6 +586,9 @@
       <c r="D11">
         <v>13</v>
       </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -593,6 +602,9 @@
       </c>
       <c r="D12">
         <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38545A34-2B5D-4CC7-BF31-3A8591088CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84174F11-30F2-4CC3-9BC7-55D1F5CA7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Time Spent</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>minStack</t>
+  </si>
+  <si>
+    <t>isPowerOfThree</t>
+  </si>
+  <si>
+    <t>isPowerOfFour</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +578,12 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -589,6 +601,12 @@
       <c r="E11">
         <v>20</v>
       </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -605,6 +623,12 @@
       </c>
       <c r="E12">
         <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/a2sv programming.xlsx
+++ b/a2sv programming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navy Seal\Desktop\a2sv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84174F11-30F2-4CC3-9BC7-55D1F5CA7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B167B6-96B3-47F7-9460-D67FD5D70615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D51D818F-0520-46EF-9407-1335314C7B9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Time Spent</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>isPowerOfFour</t>
+  </si>
+  <si>
+    <t>middleNode</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +587,9 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -607,6 +613,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -628,6 +637,9 @@
         <v>2</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
     </row>
